--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Full Name</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>📄 View Resume</t>
+  </si>
+  <si>
+    <t>Ganesh Ravulakollu</t>
+  </si>
+  <si>
+    <t>09100722160</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -524,9 +530,57 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
